--- a/Bacchus網頁清單.xlsx
+++ b/Bacchus網頁清單.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>編號</t>
   </si>
@@ -213,6 +213,17 @@
     <t>1.5hrs</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>換房</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5hrs</t>
+  </si>
+  <si>
+    <t>修改CO日期</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -370,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -454,9 +465,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -470,9 +478,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -489,11 +494,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -816,7 +824,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -995,10 +1003,10 @@
         <v>18</v>
       </c>
       <c r="H4" s="27"/>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="28" t="s">
         <v>37</v>
       </c>
       <c r="K4" s="27"/>
@@ -1039,8 +1047,8 @@
         <v>18</v>
       </c>
       <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29" t="s">
+      <c r="I5" s="38"/>
+      <c r="J5" s="28" t="s">
         <v>38</v>
       </c>
       <c r="K5" s="27"/>
@@ -1074,15 +1082,15 @@
       <c r="E6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29" t="s">
+      <c r="I6" s="38"/>
+      <c r="J6" s="28" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="27"/>
@@ -1112,16 +1120,16 @@
       <c r="C7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="27"/>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="31" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="27" t="s">
@@ -1158,12 +1166,12 @@
       <c r="E8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="27"/>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="31" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="27" t="s">
@@ -1193,17 +1201,17 @@
     <row r="9" spans="1:30">
       <c r="A9" s="24"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="31"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="31" t="s">
         <v>46</v>
       </c>
       <c r="J9" s="24" t="s">
@@ -1233,17 +1241,17 @@
     <row r="10" spans="1:30">
       <c r="A10" s="24"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="31" t="s">
         <v>46</v>
       </c>
       <c r="J10" s="24" t="s">
@@ -1273,17 +1281,17 @@
     <row r="11" spans="1:30">
       <c r="A11" s="24"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="39" t="s">
         <v>46</v>
       </c>
       <c r="J11" s="24" t="s">
@@ -1313,17 +1321,17 @@
     <row r="12" spans="1:30">
       <c r="A12" s="24"/>
       <c r="B12" s="25"/>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="34"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="24" t="s">
         <v>30</v>
       </c>
@@ -1351,17 +1359,17 @@
     <row r="13" spans="1:30">
       <c r="A13" s="24"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="31"/>
+      <c r="F13" s="30"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="31" t="s">
         <v>46</v>
       </c>
       <c r="J13" s="24" t="s">
@@ -1391,17 +1399,17 @@
     <row r="14" spans="1:30">
       <c r="A14" s="24"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="31"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="31" t="s">
         <v>46</v>
       </c>
       <c r="J14" s="24" t="s">
@@ -1463,20 +1471,20 @@
     <row r="16" spans="1:30">
       <c r="A16" s="7"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39" t="s">
+      <c r="D16" s="36"/>
+      <c r="E16" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="41" t="s">
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="37" t="s">
         <v>50</v>
       </c>
       <c r="K16" s="7"/>
@@ -1503,20 +1511,20 @@
     <row r="17" spans="1:30">
       <c r="A17" s="7"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="35" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="41" t="s">
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="37" t="s">
         <v>51</v>
       </c>
       <c r="K17" s="7"/>
@@ -1543,16 +1551,22 @@
     <row r="18" spans="1:30">
       <c r="A18" s="7"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="35" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="14"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="E18" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>55</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -1577,16 +1591,20 @@
     <row r="19" spans="1:30">
       <c r="A19" s="7"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="35" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="14"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="E19" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="37" t="s">
+        <v>53</v>
+      </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -1611,7 +1629,7 @@
     <row r="20" spans="1:30">
       <c r="A20" s="7"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="35" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="14"/>
@@ -32989,9 +33007,10 @@
       <c r="AD1000" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I18:I19"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
